--- a/Team-Data/2014-15/2-4-2014-15.xlsx
+++ b/Team-Data/2014-15/2-4-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.82</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
@@ -696,25 +763,25 @@
         <v>25.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O2" t="n">
         <v>17.3</v>
       </c>
       <c r="P2" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R2" t="n">
         <v>8.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
         <v>25.9</v>
@@ -723,28 +790,28 @@
         <v>14.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -774,25 +841,25 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -801,19 +868,19 @@
         <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0.375</v>
+        <v>0.362</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,43 +933,43 @@
         <v>39.3</v>
       </c>
       <c r="J3" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L3" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
         <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U3" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -920,13 +987,13 @@
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -938,7 +1005,7 @@
         <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>4</v>
@@ -950,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -968,19 +1035,19 @@
         <v>17</v>
       </c>
       <c r="AR3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT3" t="n">
         <v>16</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
         <v>18</v>
@@ -998,10 +1065,10 @@
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.417</v>
+        <v>0.404</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J4" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>6.7</v>
@@ -1060,67 +1127,67 @@
         <v>20.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P4" t="n">
         <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U4" t="n">
         <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1132,22 +1199,22 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>18</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1162,13 +1229,13 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
@@ -1183,7 +1250,7 @@
         <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1305,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1323,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
@@ -1332,13 +1399,13 @@
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS5" t="n">
         <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.612</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L6" t="n">
         <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O6" t="n">
         <v>20.8</v>
       </c>
       <c r="P6" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q6" t="n">
         <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T6" t="n">
-        <v>46</v>
+        <v>45.7</v>
       </c>
       <c r="U6" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V6" t="n">
         <v>14.3</v>
       </c>
       <c r="W6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1487,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1514,19 +1581,19 @@
         <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -1660,19 +1727,19 @@
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1690,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>15</v>
@@ -1705,16 +1772,16 @@
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -1773,43 +1840,43 @@
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J8" t="n">
-        <v>85.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
         <v>12.4</v>
@@ -1818,7 +1885,7 @@
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
@@ -1827,13 +1894,13 @@
         <v>19.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>107</v>
+        <v>106.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD8" t="n">
         <v>2</v>
@@ -1842,10 +1909,10 @@
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1878,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
         <v>21</v>
@@ -1902,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
         <v>23.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.318</v>
+        <v>0.321</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.741</v>
+        <v>0.736</v>
       </c>
       <c r="R9" t="n">
         <v>12.2</v>
@@ -1991,7 +2058,7 @@
         <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
         <v>14.3</v>
@@ -2003,10 +2070,10 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA9" t="n">
         <v>20.9</v>
@@ -2018,13 +2085,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
         <v>20</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>22</v>
       </c>
       <c r="AG9" t="n">
         <v>20</v>
@@ -2033,34 +2100,34 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="n">
         <v>6</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR9" t="n">
         <v>4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>3</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2072,16 +2139,16 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J10" t="n">
         <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O10" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.705</v>
+        <v>0.704</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T10" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U10" t="n">
         <v>21.4</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>7.8</v>
@@ -2191,34 +2258,34 @@
         <v>18.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
         <v>20</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2230,13 +2297,13 @@
         <v>9</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,37 +2312,37 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
         <v>16</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW10" t="n">
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="J11" t="n">
         <v>86.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L11" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="M11" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="O11" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.775</v>
@@ -2349,40 +2416,40 @@
         <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
         <v>27.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>6.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.4</v>
+        <v>111</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2409,22 +2476,22 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2448,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -2501,31 +2568,31 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.721</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
@@ -2537,34 +2604,34 @@
         <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V12" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2579,13 +2646,13 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,22 +2664,22 @@
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
         <v>18</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>0.36</v>
+        <v>0.347</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.433</v>
+        <v>0.43</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
         <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.328</v>
+        <v>0.323</v>
       </c>
       <c r="O13" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P13" t="n">
         <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.754</v>
+        <v>0.757</v>
       </c>
       <c r="R13" t="n">
         <v>10.8</v>
       </c>
       <c r="S13" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
         <v>14.6</v>
@@ -2728,46 +2795,46 @@
         <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2779,13 +2846,13 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP13" t="n">
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>15</v>
@@ -2821,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2964,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
         <v>23</v>
@@ -2973,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT14" t="n">
         <v>24</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -3044,73 +3111,73 @@
         <v>0.271</v>
       </c>
       <c r="H15" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85.7</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.7</v>
+        <v>43.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,10 +3189,10 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -3134,31 +3201,31 @@
         <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
         <v>7</v>
       </c>
       <c r="AQ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS15" t="n">
         <v>19</v>
       </c>
-      <c r="AR15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>16</v>
-      </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3167,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3176,10 +3243,10 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
         <v>48.9</v>
@@ -3232,7 +3299,7 @@
         <v>38.6</v>
       </c>
       <c r="J16" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.463</v>
@@ -3241,34 +3308,34 @@
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
         <v>18.6</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U16" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
         <v>8.300000000000001</v>
@@ -3280,7 +3347,7 @@
         <v>5.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA16" t="n">
         <v>20.9</v>
@@ -3289,10 +3356,10 @@
         <v>101.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3319,10 +3386,10 @@
         <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3334,19 +3401,19 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS16" t="n">
         <v>12</v>
       </c>
       <c r="AT16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3358,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -3396,61 +3463,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.429</v>
+        <v>0.438</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
         <v>23.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R17" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="S17" t="n">
         <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="U17" t="n">
         <v>19.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>7.9</v>
@@ -3465,25 +3532,25 @@
         <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.59999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,16 +3574,16 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
@@ -3528,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
@@ -3543,13 +3610,13 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>29</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="n">
         <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>0.551</v>
+        <v>0.542</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
         <v>81.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
         <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="R18" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S18" t="n">
         <v>31.1</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V18" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z18" t="n">
         <v>22.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3668,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3680,13 +3747,13 @@
         <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3695,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3716,22 +3783,22 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY18" t="n">
         <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.184</v>
+        <v>0.167</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,67 +3845,67 @@
         <v>36.8</v>
       </c>
       <c r="J19" t="n">
-        <v>84.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P19" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
         <v>28.8</v>
       </c>
       <c r="T19" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA19" t="n">
         <v>21.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>20</v>
@@ -3874,19 +3941,19 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
@@ -3901,10 +3968,10 @@
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -3945,22 +4012,22 @@
         <v>48</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.521</v>
+        <v>0.542</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3969,67 +4036,67 @@
         <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
         <v>0.347</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4041,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,43 +4117,43 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>23</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4217,13 +4284,13 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>15</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4256,13 +4323,13 @@
         <v>13</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>84.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O22" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P22" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R22" t="n">
         <v>12</v>
@@ -4354,7 +4421,7 @@
         <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>46.6</v>
+        <v>46.5</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
@@ -4363,31 +4430,31 @@
         <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB22" t="n">
         <v>99.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>16</v>
@@ -4396,16 +4463,16 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
         <v>16</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4414,19 +4481,19 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4438,28 +4505,28 @@
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
       </c>
       <c r="BC22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -4503,67 +4570,67 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O23" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P23" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,13 +4648,13 @@
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4596,13 +4663,13 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ23" t="n">
         <v>26</v>
@@ -4620,25 +4687,25 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>28</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4784,19 +4851,19 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>25</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -4957,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="AM25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN25" t="n">
         <v>10</v>
@@ -4972,10 +5039,10 @@
         <v>2</v>
       </c>
       <c r="AR25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS25" t="n">
         <v>18</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -4987,10 +5054,10 @@
         <v>24</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5005,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5142,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5160,13 +5227,13 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-3.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
         <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
@@ -5321,7 +5388,7 @@
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
         <v>23</v>
@@ -5339,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5369,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -5413,10 +5480,10 @@
         <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.456</v>
@@ -5428,55 +5495,55 @@
         <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>10</v>
@@ -5485,7 +5552,7 @@
         <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5497,7 +5564,7 @@
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,7 +5573,7 @@
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>17</v>
@@ -5515,7 +5582,7 @@
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,13 +5591,13 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5542,16 +5609,16 @@
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC28" t="n">
         <v>9</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="n">
         <v>33</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>0.66</v>
+        <v>0.673</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J29" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.457</v>
@@ -5607,19 +5674,19 @@
         <v>8.9</v>
       </c>
       <c r="M29" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P29" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
         <v>11.3</v>
@@ -5634,10 +5701,10 @@
         <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
@@ -5646,40 +5713,40 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AA29" t="n">
         <v>21.6</v>
       </c>
-      <c r="AA29" t="n">
-        <v>21.5</v>
-      </c>
       <c r="AB29" t="n">
-        <v>105.8</v>
+        <v>106.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
       </c>
       <c r="AF29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>7</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>7</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5706,7 +5773,7 @@
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5715,10 +5782,10 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="n">
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,7 +5847,7 @@
         <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="K30" t="n">
         <v>0.451</v>
@@ -5792,16 +5859,16 @@
         <v>21.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
         <v>17.1</v>
       </c>
       <c r="P30" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R30" t="n">
         <v>11.7</v>
@@ -5813,7 +5880,7 @@
         <v>42.7</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
@@ -5822,7 +5889,7 @@
         <v>6.9</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
         <v>4.7</v>
@@ -5834,22 +5901,22 @@
         <v>19.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5864,7 +5931,7 @@
         <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5876,10 +5943,10 @@
         <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5891,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5900,10 +5967,10 @@
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
         <v>5</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>21</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="n">
         <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>0.62</v>
+        <v>0.633</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J31" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M31" t="n">
         <v>16</v>
       </c>
       <c r="N31" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="O31" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R31" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T31" t="n">
         <v>43.8</v>
       </c>
       <c r="U31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V31" t="n">
         <v>14.9</v>
@@ -6004,43 +6071,43 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
         <v>3</v>
@@ -6052,52 +6119,52 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP31" t="n">
         <v>23</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AQ31" t="n">
         <v>22</v>
       </c>
-      <c r="AQ31" t="n">
+      <c r="AR31" t="n">
         <v>21</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-4-2014-15</t>
+          <t>2015-02-04</t>
         </is>
       </c>
     </row>
